--- a/database.xlsx
+++ b/database.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morai\Desktop\Odonto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3B1DE-639E-4D74-BB75-74872679D2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CDD2FA-75A2-4C4B-840B-C052518EA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2760" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nome</t>
   </si>
@@ -46,12 +48,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
-    <t>Coluna2</t>
   </si>
   <si>
     <t>Telefone</t>
@@ -110,20 +106,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{404F9088-3185-4AF4-BC44-B34CA79E0E4B}" name="Tabela1" displayName="Tabela1" ref="A1:H1048576" totalsRowShown="0">
-  <autoFilter ref="A1:H1048576" xr:uid="{404F9088-3185-4AF4-BC44-B34CA79E0E4B}"/>
-  <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{5B9F82A5-606F-4E70-AE5F-017138076B63}" name="ID"/>
-    <tableColumn id="10" xr3:uid="{DA1DD379-9400-48EE-8D74-C5272739E456}" name="Nome"/>
-    <tableColumn id="11" xr3:uid="{FE8032F9-F05F-42ED-ADAD-685E7F0C8F26}" name="Telefone"/>
-    <tableColumn id="1" xr3:uid="{3BAF3905-0238-4F23-910B-B8F147B144CA}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{803B660B-1864-4410-99C5-219BA2048B06}" name="Hora"/>
-    <tableColumn id="3" xr3:uid="{7CF9465B-2FAC-43E8-91CD-DB103BF12F27}" name="Tipo"/>
-    <tableColumn id="4" xr3:uid="{ED361F2E-2F35-4EE4-A27F-EB8E4A98B254}" name="Serviço"/>
-    <tableColumn id="5" xr3:uid="{46AE42B8-DFA2-468A-8492-43B55D09E712}" name="Pagamento"/>
-    <tableColumn id="6" xr3:uid="{242F25AB-334D-4459-8D0A-FB0089D69866}" name="Coluna2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BF77A33-D0DD-4573-A742-C371A2858308}" name="Tabela1" displayName="Tabela1" ref="A1:H1048576" totalsRowShown="0">
+  <autoFilter ref="A1:H1048576" xr:uid="{3BF77A33-D0DD-4573-A742-C371A2858308}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{390F4624-A1C1-42FF-ADCE-639CB4EE9FE3}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{09257C74-706B-49CE-88D1-70B75832098F}" name="Nome"/>
+    <tableColumn id="3" xr3:uid="{F9CA334E-B100-4683-BA5D-00D339CAD076}" name="Telefone"/>
+    <tableColumn id="4" xr3:uid="{B1FCC632-05E3-4E6D-8083-999DF46A2F58}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{1B52A5F9-1253-428E-BC44-3A77835082FD}" name="Hora"/>
+    <tableColumn id="6" xr3:uid="{B338B22C-A4DC-47C7-AC92-EDE065C12220}" name="Tipo"/>
+    <tableColumn id="7" xr3:uid="{9F538D34-11D7-4244-91E5-CB26B54BC36E}" name="Serviço"/>
+    <tableColumn id="8" xr3:uid="{2ADF614C-FC74-4338-AFCC-4EA5722E6902}" name="Pagamento"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -390,19 +385,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -410,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -426,9 +423,6 @@
       </c>
       <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -437,4 +431,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC65E0-8F1E-488A-9D60-92CF51AE2D7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>